--- a/Data.xlsx
+++ b/Data.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,11 +1633,11 @@
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
       <c r="E55" s="12">
         <v>4</v>
       </c>
